--- a/biology/Zoologie/Archaeoprepona_phaedra/Archaeoprepona_phaedra.xlsx
+++ b/biology/Zoologie/Archaeoprepona_phaedra/Archaeoprepona_phaedra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoprepona phaedra est un insecte lépidoptère diurne de la famille des Nymphalidae, de la sous-famille des Charaxinae et du genre Archaeoprepona.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archaeoprepona phaedra a été décrit par Frederick DuCane Godman et Osbert Salvin sous le nom initial de Prepona phaedra[1].
-Sous-espèces
-Archaeoprepona phaedra phaedra
-Archaeoprepona phaedra aelia Constantino &amp; Salazar, 1989
-Noms vernaculaires
-Archaeoprepona phaedra se nomme Falcate Prepona en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archaeoprepona phaedra a été décrit par Frederick DuCane Godman et Osbert Salvin sous le nom initial de Prepona phaedra.
 </t>
         </is>
       </c>
@@ -544,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Archaeoprepona phaedra phaedra
+Archaeoprepona phaedra aelia Constantino &amp; Salazar, 1989</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Archaeoprepona_phaedra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_phaedra</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archaeoprepona phaedra se nomme Falcate Prepona en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Archaeoprepona_phaedra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeoprepona_phaedra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeoprepona phaedraest un grand papillon aux ailes antérieures à bord costal bossu et bord externe concave.
 Le dessus est marron foncé presque noir marqué aux ailes antérieures et aux ailes postérieures d'une large bande bleu turquoise et d'une ligne submarginale de petits ocelles peu visibles exceptés ceux proches de l'angle anal qui sont pupillés de bleu turquoise.
@@ -556,66 +641,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Archaeoprepona_phaedra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Archaeoprepona_phaedra</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans au Mexique et à Panama.
+</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Archaeoprepona_phaedra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Archaeoprepona_phaedra</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans au Mexique et à Panama[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Archaeoprepona phaedra, sur Wikimedia CommonsArchaeoprepona phaedra, sur Wikispecies
 </t>
